--- a/UniApplikation/OutputFiles/WPM10.xlsx
+++ b/UniApplikation/OutputFiles/WPM10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/UniApplikation/OutputFiles/WPM10.xlsx
+++ b/UniApplikation/OutputFiles/WPM10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
